--- a/data/trans_dic/P55$pareja-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P55$pareja-Dificultad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.2178889476811601</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1606143759057241</v>
+        <v>0.160614375905724</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3632360665161021</v>
+        <v>0.3630947252374012</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3151387469647332</v>
+        <v>0.3141585693884005</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3099543904976109</v>
+        <v>0.2972129541986649</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2883208372289364</v>
+        <v>0.2920742806016229</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07227100683363928</v>
+        <v>0.07090975621889013</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07507384841003531</v>
+        <v>0.07586935319566299</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06909507571329725</v>
+        <v>0.07204601977759154</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0413002582471145</v>
+        <v>0.04052280622285481</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1636305582259336</v>
+        <v>0.1617647082317625</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1736908896851231</v>
+        <v>0.1734535220514149</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1546896309324993</v>
+        <v>0.1527265081937391</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1104775235355218</v>
+        <v>0.1117982467302203</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.658104936574067</v>
+        <v>0.6663323952891341</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6175794099270796</v>
+        <v>0.6148230659158376</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6081325073638055</v>
+        <v>0.5998783664857298</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6188203866042158</v>
+        <v>0.6147975813998692</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1951349672657426</v>
+        <v>0.1971067960929295</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2205700777933001</v>
+        <v>0.2278690544397902</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2153935606330348</v>
+        <v>0.2038273636977009</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1252128245537361</v>
+        <v>0.1257027644867165</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2944144000663663</v>
+        <v>0.288010532904573</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3196748655623534</v>
+        <v>0.3264039914124643</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2991613543837098</v>
+        <v>0.3051907186738411</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2251317157194077</v>
+        <v>0.2227352171094699</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.1776315583833668</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.1312109037927927</v>
+        <v>0.1312109037927926</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2574880355922948</v>
@@ -833,7 +833,7 @@
         <v>0.2702857912590408</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2077419130469627</v>
+        <v>0.2077419130469626</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3132661000989113</v>
+        <v>0.3075460584730241</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1783714918952392</v>
+        <v>0.1901347472905519</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3101529824767501</v>
+        <v>0.3104550571693939</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2709712624486786</v>
+        <v>0.2782008914165008</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03765302912832932</v>
+        <v>0.04833243114446596</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0799844469282928</v>
+        <v>0.07813286753458186</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1021198894384125</v>
+        <v>0.09123111832549972</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.09354184429532343</v>
+        <v>0.08805755709008585</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.187653714037147</v>
+        <v>0.1848759484492054</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.135612156124078</v>
+        <v>0.1381722683556461</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1869861577469574</v>
+        <v>0.1871743734828115</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1649046654178537</v>
+        <v>0.1646657628297443</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5751634666535996</v>
+        <v>0.5755042246007284</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5025164137923005</v>
+        <v>0.51841089510092</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6396861178892184</v>
+        <v>0.6251107430394246</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4863042809636873</v>
+        <v>0.4801418890108058</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2099116824979783</v>
+        <v>0.2001069904305917</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2370496739472115</v>
+        <v>0.2256235242386561</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3081548867076513</v>
+        <v>0.2823506482028275</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1859749385097221</v>
+        <v>0.1808082461153788</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3451526565996075</v>
+        <v>0.3401200767472975</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.289479000601129</v>
+        <v>0.2768187863693968</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3666193653689913</v>
+        <v>0.3594377765771206</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2572590287233077</v>
+        <v>0.2611305519652685</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.4910475515498651</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3279928010820105</v>
+        <v>0.3279928010820106</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.07737594762350875</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2811457115280977</v>
+        <v>0.2713703348805704</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2344442678331996</v>
+        <v>0.249294465721894</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3203599567056517</v>
+        <v>0.3277768193268209</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2200876675017962</v>
+        <v>0.214734943529277</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02039138758770193</v>
+        <v>0.02053367069914216</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1217522898642708</v>
+        <v>0.1200099306025933</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1418841811882277</v>
+        <v>0.1353380625331815</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08251943985533422</v>
+        <v>0.08565449069440929</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1405286264635442</v>
+        <v>0.1327111977040754</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1989651653915876</v>
+        <v>0.2019322971652404</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2243097805849071</v>
+        <v>0.2300285065958888</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1445317192483601</v>
+        <v>0.1418204366799403</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6934452429654704</v>
+        <v>0.6799177300024378</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5654816874289703</v>
+        <v>0.5671715367882195</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6587959908957826</v>
+        <v>0.6699983944769641</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.450676689614499</v>
+        <v>0.4683237668505195</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2009053468587038</v>
+        <v>0.1975328375371143</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3648762264741524</v>
+        <v>0.352076974073714</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3917416836661886</v>
+        <v>0.3839507934509435</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1855317199765235</v>
+        <v>0.1931336935868728</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3534060966397694</v>
+        <v>0.3349832098762608</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.389211742615569</v>
+        <v>0.4049445782919126</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4262950414337049</v>
+        <v>0.4328525527124966</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.252314239508601</v>
+        <v>0.255060099342996</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3735818431332796</v>
+        <v>0.3959637520891298</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1289268738889389</v>
+        <v>0.1631536024419955</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1048837095186716</v>
+        <v>0.1110334881909109</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2316345598161953</v>
+        <v>0.2332104237824431</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03699306604896488</v>
+        <v>0.03798379294277029</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04112646107843406</v>
+        <v>0.04092804117732553</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1052013452434912</v>
+        <v>0.1016968648246001</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1907523950247186</v>
+        <v>0.2141463504232108</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1163888784090802</v>
+        <v>0.1172886565332947</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.09196042411392222</v>
+        <v>0.09933468286714368</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1865489006670359</v>
+        <v>0.1841004983133842</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9207170420097766</v>
+        <v>0.9184508126278806</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6658649845117539</v>
+        <v>0.7000490785304765</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5156767069418404</v>
+        <v>0.5532904401698152</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4689848242889444</v>
+        <v>0.4699300542870428</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4822782350669834</v>
+        <v>0.514168227342947</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3231654094377656</v>
+        <v>0.3391798386615738</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3584676825307685</v>
+        <v>0.3823219085015302</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2641704333326582</v>
+        <v>0.2543953833582335</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6282767476828974</v>
+        <v>0.6319502765889615</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.402405630210375</v>
+        <v>0.3961482056517913</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3422991243008514</v>
+        <v>0.3425486831692924</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3208776328418355</v>
+        <v>0.3289172368466889</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.4429760602303568</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3667424671865554</v>
+        <v>0.3667424671865553</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1110808175297458</v>
@@ -1241,7 +1241,7 @@
         <v>0.2566114266548997</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2025598204098111</v>
+        <v>0.2025598204098112</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3996191120974041</v>
+        <v>0.4082853749815174</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3172663685894784</v>
+        <v>0.3200572978038703</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3622125552484641</v>
+        <v>0.3583028798375718</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.304355902851932</v>
+        <v>0.3077317022412477</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07540515143588153</v>
+        <v>0.07399265548765403</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1091142671125011</v>
+        <v>0.1129806174725074</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1265053707023892</v>
+        <v>0.1213911130401243</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1008132034105126</v>
+        <v>0.09942886204046106</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.206001689945099</v>
+        <v>0.2049106217296049</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1967135246116126</v>
+        <v>0.196797839433972</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2099921631218409</v>
+        <v>0.2137252979731048</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1756254408583275</v>
+        <v>0.1778267048750338</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5791772891013554</v>
+        <v>0.579685437706194</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4820400872427568</v>
+        <v>0.4882134218536906</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5323610265924611</v>
+        <v>0.5283013747510692</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.429923193622948</v>
+        <v>0.4311720394841721</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1634363745342591</v>
+        <v>0.1615758750436552</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2024733762933614</v>
+        <v>0.203272945902745</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2275760821957773</v>
+        <v>0.2284830950036948</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1506296309996907</v>
+        <v>0.1511366263426714</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2960496659179878</v>
+        <v>0.2940016075046059</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2839003661914369</v>
+        <v>0.2852940323157238</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3033798591880318</v>
+        <v>0.3053945631621378</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2308465309586264</v>
+        <v>0.2316645465957011</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>14199</v>
+        <v>14194</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>15098</v>
+        <v>15051</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>12240</v>
+        <v>11737</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7799</v>
+        <v>7901</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8048</v>
+        <v>7896</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>7381</v>
+        <v>7459</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7373</v>
+        <v>7687</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3546</v>
+        <v>3479</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>24618</v>
+        <v>24337</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>25398</v>
+        <v>25364</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>22614</v>
+        <v>22327</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>12474</v>
+        <v>12623</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>25726</v>
+        <v>26048</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>29588</v>
+        <v>29456</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>24015</v>
+        <v>23689</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>16740</v>
+        <v>16631</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>21729</v>
+        <v>21949</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>21686</v>
+        <v>22404</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>22983</v>
+        <v>21749</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>10750</v>
+        <v>10792</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>44294</v>
+        <v>43330</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>46745</v>
+        <v>47729</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>43735</v>
+        <v>44616</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>25419</v>
+        <v>25148</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>15732</v>
+        <v>15444</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7337</v>
+        <v>7821</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>10348</v>
+        <v>10358</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>14910</v>
+        <v>15308</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2232</v>
+        <v>2865</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>7522</v>
+        <v>7348</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>7400</v>
+        <v>6611</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>11541</v>
+        <v>10865</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>20546</v>
+        <v>20242</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>18332</v>
+        <v>18678</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>19788</v>
+        <v>19808</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>29420</v>
+        <v>29377</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>28884</v>
+        <v>28901</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>20671</v>
+        <v>21325</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>21342</v>
+        <v>20856</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>26759</v>
+        <v>26420</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>12442</v>
+        <v>11861</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>22293</v>
+        <v>21219</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>22330</v>
+        <v>20460</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>22946</v>
+        <v>22308</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>37790</v>
+        <v>37239</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>39132</v>
+        <v>37420</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>38798</v>
+        <v>38038</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>45897</v>
+        <v>46587</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6533</v>
+        <v>6306</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9393</v>
+        <v>9988</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9366</v>
+        <v>9583</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8050</v>
+        <v>7854</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7050</v>
+        <v>6949</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>9042</v>
+        <v>8624</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7048</v>
+        <v>7316</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>9130</v>
+        <v>8622</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>19492</v>
+        <v>19783</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>20852</v>
+        <v>21384</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>17631</v>
+        <v>17300</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16114</v>
+        <v>15800</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22657</v>
+        <v>22725</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>19261</v>
+        <v>19589</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>16483</v>
+        <v>17129</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8384</v>
+        <v>8243</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>21127</v>
+        <v>20386</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>24964</v>
+        <v>24467</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>15846</v>
+        <v>16495</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>22961</v>
+        <v>21764</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>38131</v>
+        <v>39672</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>39629</v>
+        <v>40239</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>30778</v>
+        <v>31113</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3709</v>
+        <v>3931</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2057</v>
+        <v>2604</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1766</v>
+        <v>1869</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>11520</v>
+        <v>11599</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1042</v>
+        <v>1069</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5958</v>
+        <v>5760</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>4184</v>
+        <v>4697</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>5134</v>
+        <v>5174</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>3695</v>
+        <v>3991</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>19843</v>
+        <v>19583</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9140</v>
+        <v>9117</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>10626</v>
+        <v>11171</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>8680</v>
+        <v>9314</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>23325</v>
+        <v>23372</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>5791</v>
+        <v>6174</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>9099</v>
+        <v>9550</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>8367</v>
+        <v>8924</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>14962</v>
+        <v>14408</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>13781</v>
+        <v>13862</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>17752</v>
+        <v>17476</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>13752</v>
+        <v>13762</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>34132</v>
+        <v>34987</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>48943</v>
+        <v>50004</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>46026</v>
+        <v>46430</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>43076</v>
+        <v>42611</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>51250</v>
+        <v>51818</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>16918</v>
+        <v>16601</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>30380</v>
+        <v>31456</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>33680</v>
+        <v>32318</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>35414</v>
+        <v>34927</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>71450</v>
+        <v>71071</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>83306</v>
+        <v>83342</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>80880</v>
+        <v>82317</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>91267</v>
+        <v>92411</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>70934</v>
+        <v>70996</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>69929</v>
+        <v>70825</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>63311</v>
+        <v>62828</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>72393</v>
+        <v>72604</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>36670</v>
+        <v>36252</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>56373</v>
+        <v>56596</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>60588</v>
+        <v>60830</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>52913</v>
+        <v>53091</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>102682</v>
+        <v>101972</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>120229</v>
+        <v>120819</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>116848</v>
+        <v>117624</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>119963</v>
+        <v>120388</v>
       </c>
     </row>
     <row r="24">
